--- a/prep_and_checklists/Wedding Hannah & Michael  /PREPLIST_Wedding Hannah & Michael  _12-26-2025_0.xlsx
+++ b/prep_and_checklists/Wedding Hannah & Michael  /PREPLIST_Wedding Hannah & Michael  _12-26-2025_0.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10913"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11214"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/davidcuvin/purveyor_project/prep_and_checklists/Wedding Hannah &amp; Michael  /"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46B18D9D-DD85-F844-A1F0-492CFAE34CAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BFBA5BF-B981-6D40-843B-F43D1EF2CD71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2660" yWindow="760" windowWidth="30240" windowHeight="17900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="prep_sheet" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="204">
   <si>
     <t xml:space="preserve">Wedding Hannah &amp; Michael  , Guests: N/A   , 5:00 PM - 12:00 AM   ,Saturday, January 10, 2026  </t>
   </si>
@@ -506,9 +506,6 @@
     <t>1 cup, pull from reach-in freezer</t>
   </si>
   <si>
-    <t>6 pints</t>
-  </si>
-  <si>
     <t>4 x 2lb bags</t>
   </si>
   <si>
@@ -536,15 +533,6 @@
     <t>2 cases</t>
   </si>
   <si>
-    <t>10 each</t>
-  </si>
-  <si>
-    <t>6 pints see AM prep</t>
-  </si>
-  <si>
-    <t>1 pint, see AM Prep</t>
-  </si>
-  <si>
     <t>4 quarts, dry</t>
   </si>
   <si>
@@ -563,14 +551,95 @@
     <t>2 DZ each, 4 types</t>
   </si>
   <si>
-    <t>50 each, see AM Prep</t>
+    <t>Vendor</t>
+  </si>
+  <si>
+    <t>2 pints</t>
+  </si>
+  <si>
+    <t>4 pints</t>
+  </si>
+  <si>
+    <t>4 boxes</t>
+  </si>
+  <si>
+    <t>Green Salad</t>
+  </si>
+  <si>
+    <t>mixed greens</t>
+  </si>
+  <si>
+    <t>citrus-tahini dressing</t>
+  </si>
+  <si>
+    <t>crispy quinoa zaatar</t>
+  </si>
+  <si>
+    <t>sliced cucumber</t>
+  </si>
+  <si>
+    <t>1 case, see Req Prep</t>
+  </si>
+  <si>
+    <t>1 quart, see Req Prep</t>
+  </si>
+  <si>
+    <t>1 pint, see Req Prep</t>
+  </si>
+  <si>
+    <t>2 each</t>
+  </si>
+  <si>
+    <t>2 pints, see Req Prep</t>
+  </si>
+  <si>
+    <t>6 pints see Req prep</t>
+  </si>
+  <si>
+    <t>50 each, see Req Prep</t>
+  </si>
+  <si>
+    <t>8 each</t>
+  </si>
+  <si>
+    <t>1 bag</t>
+  </si>
+  <si>
+    <t>Silent Veg</t>
+  </si>
+  <si>
+    <t>Eggplant Parm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fried eggplant </t>
+  </si>
+  <si>
+    <t>pomodoro sauce</t>
+  </si>
+  <si>
+    <t>shredded mozzarella</t>
+  </si>
+  <si>
+    <t>ricotta</t>
+  </si>
+  <si>
+    <t>pick basil</t>
+  </si>
+  <si>
+    <t>48 ppl</t>
+  </si>
+  <si>
+    <t>grated parm</t>
+  </si>
+  <si>
+    <t>25 pcs, pull from freezer</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -581,26 +650,6 @@
     <font>
       <b/>
       <sz val="14"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="14"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="14"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -624,6 +673,28 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri (Body)"/>
     </font>
   </fonts>
   <fills count="3">
@@ -680,27 +751,28 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1005,10 +1077,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:H53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1018,580 +1093,752 @@
     <col min="4" max="4" width="30.6640625" customWidth="1"/>
     <col min="5" max="5" width="26" customWidth="1"/>
     <col min="7" max="7" width="49.33203125" customWidth="1"/>
-    <col min="8" max="8" width="19.1640625" customWidth="1"/>
+    <col min="8" max="8" width="32.83203125" customWidth="1"/>
     <col min="10" max="10" width="24.83203125" customWidth="1"/>
     <col min="13" max="13" width="23.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="21" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="19" x14ac:dyDescent="0.2">
-      <c r="A3" s="9" t="s">
+    <row r="3" spans="1:8" s="7" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="8"/>
-      <c r="D3" s="9" t="s">
+      <c r="B3" s="6"/>
+      <c r="D3" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="E3" s="8"/>
-      <c r="G3" s="9" t="s">
+      <c r="E3" s="6"/>
+      <c r="G3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="8"/>
-    </row>
-    <row r="4" spans="1:8" ht="19" x14ac:dyDescent="0.2">
-      <c r="A4" s="7" t="s">
+      <c r="H3" s="6"/>
+    </row>
+    <row r="4" spans="1:8" s="7" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="B4" s="8"/>
-      <c r="D4" s="7" t="s">
+      <c r="B4" s="6"/>
+      <c r="D4" s="8" t="s">
         <v>140</v>
       </c>
-      <c r="E4" s="8"/>
-      <c r="G4" s="7" t="s">
+      <c r="E4" s="6"/>
+      <c r="G4" s="8" t="s">
         <v>141</v>
       </c>
-      <c r="H4" s="8"/>
-    </row>
-    <row r="5" spans="1:8" ht="19" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
+      <c r="H4" s="6"/>
+    </row>
+    <row r="5" spans="1:8" s="7" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="G5" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="H5" s="9" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A6" s="3" t="s">
+    <row r="6" spans="1:8" s="7" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="10" t="s">
         <v>142</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="H6" s="10" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" s="7" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="10" t="s">
         <v>161</v>
       </c>
-      <c r="G6" s="3" t="s">
+      <c r="G7" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="H7" s="10" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" s="7" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="G8" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="H8" s="10" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" s="7" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="G9" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="H9" s="10" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" s="7" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="G10" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="H10" s="10" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" s="7" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" s="7" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D12" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="H12" s="9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" s="7" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="G13" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="H13" s="10" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" s="7" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="G14" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="H14" s="10" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" s="7" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="G15" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="H15" s="10" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" s="7" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="G16" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="H16" s="10" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" s="7" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="E17" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="G17" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="H17" s="10" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" s="7" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D18" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="E18" s="10" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" s="7" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="E19" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="H19" s="6"/>
+    </row>
+    <row r="20" spans="1:8" s="7" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="E20" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="G20" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="H20" s="6"/>
+    </row>
+    <row r="21" spans="1:8" s="7" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="G21" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="H21" s="9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" s="7" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="G22" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="H22" s="10" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" s="7" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="E23" s="6"/>
+      <c r="G23" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="H23" s="10" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" s="7" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D24" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="E24" s="6"/>
+      <c r="G24" s="10" t="s">
+        <v>198</v>
+      </c>
+      <c r="H24" s="10" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" s="7" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E25" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="G25" s="10" t="s">
+        <v>199</v>
+      </c>
+      <c r="H25" s="10" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" s="7" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B26" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="D26" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E26" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="G26" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="H26" s="10" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" s="7" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="B27" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="D27" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E27" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="G27" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="H27" s="10" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" s="7" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="B28" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="D28" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E28" s="10" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" s="7" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="B29" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="D29" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E29" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="G29" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="H29" s="9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" s="7" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D30" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="E30" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="G30" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="H30" s="10" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" s="7" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="B31" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="G31" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="H31" s="10" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" s="7" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B32" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="D32" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="E32" s="9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" s="7" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="B33" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="D33" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="E33" s="10" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" s="7" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="B34" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="D34" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="E34" s="10" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" s="7" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="B35" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="D35" s="10" t="s">
+        <v>183</v>
+      </c>
+      <c r="E35" s="10" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" s="7" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="B36" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="D36" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="E36" s="10" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" s="7" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="38" spans="1:5" s="7" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="B38" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D38" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E38" s="9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" s="7" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="B39" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="D39" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="H6" s="3" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A7" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="G7" s="3" t="s">
+      <c r="E39" s="10" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" s="7" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="B40" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="D40" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="H7" s="3" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A8" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="G8" s="3" t="s">
+      <c r="E40" s="10" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" s="7" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="B41" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="D41" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="H8" s="3" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A9" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B9" s="3" t="s">
+      <c r="E41" s="10" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" s="7" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D42" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E42" s="10" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" s="7" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="B43" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D43" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="E43" s="10" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" s="7" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="B44" s="10" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" s="7" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="B45" s="10" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" s="7" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="B46" s="10" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" s="7" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="48" spans="1:5" s="7" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="B48" s="9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" s="7" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="B49" s="10" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" s="7" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="B50" s="10" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" s="7" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="B51" s="10" t="s">
         <v>145</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A10" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B10" s="3" t="s">
+    </row>
+    <row r="52" spans="1:2" s="7" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="B52" s="10" t="s">
         <v>145</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A11" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="19" x14ac:dyDescent="0.2">
-      <c r="D12" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="19" x14ac:dyDescent="0.2">
-      <c r="A13" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H13" s="3" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A14" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A15" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A16" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="H16" s="3" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A17" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="D18" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="19" x14ac:dyDescent="0.2">
-      <c r="A19" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="H19" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A20" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="H20" s="3" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A21" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A22" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A23" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="19" x14ac:dyDescent="0.2">
-      <c r="A25" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A26" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A27" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A28" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A29" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" ht="19" x14ac:dyDescent="0.2">
-      <c r="A31" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A32" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A33" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A34" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A35" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A36" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" ht="19" x14ac:dyDescent="0.2">
-      <c r="A38" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A39" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A40" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="B40" s="3" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A41" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" ht="19" x14ac:dyDescent="0.2">
-      <c r="A43" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A44" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="B44" s="3" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A45" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="B45" s="3" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A46" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="B46" s="3" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A48" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A49" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="B49" s="3" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A50" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="B50" s="3" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A51" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="B51" s="3" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A52" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="B52" s="3" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A53" s="3" t="s">
+    </row>
+    <row r="53" spans="1:2" s="7" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="B53" s="3" t="s">
+      <c r="B53" s="10" t="s">
         <v>160</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="10">
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="D24:E24"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="G4:H4"/>
     <mergeCell ref="D4:E4"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="G3:H3"/>
   </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="41" orientation="landscape"/>
 </worksheet>
 </file>
 
@@ -1604,14 +1851,14 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="3" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="19" x14ac:dyDescent="0.2">
-      <c r="A2" s="6"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
+      <c r="A2" s="4"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
     </row>
     <row r="3" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
@@ -1625,465 +1872,466 @@
       </c>
     </row>
     <row r="4" spans="1:3" ht="19" x14ac:dyDescent="0.2">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6" t="s">
+      <c r="B4" s="4"/>
+      <c r="C4" s="4" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="19" x14ac:dyDescent="0.2">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6" t="s">
+      <c r="B5" s="4"/>
+      <c r="C5" s="4" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="19" x14ac:dyDescent="0.2">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6" t="s">
+      <c r="B6" s="4"/>
+      <c r="C6" s="4" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="19" x14ac:dyDescent="0.2">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6" t="s">
+      <c r="B7" s="4"/>
+      <c r="C7" s="4" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="19" x14ac:dyDescent="0.2">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6" t="s">
+      <c r="B8" s="4"/>
+      <c r="C8" s="4" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="19" x14ac:dyDescent="0.2">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6" t="s">
+      <c r="B9" s="4"/>
+      <c r="C9" s="4" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="19" x14ac:dyDescent="0.2">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6" t="s">
+      <c r="B10" s="4"/>
+      <c r="C10" s="4" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="19" x14ac:dyDescent="0.2">
-      <c r="A11" s="6" t="s">
+      <c r="A11" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6" t="s">
+      <c r="B11" s="4"/>
+      <c r="C11" s="4" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="19" x14ac:dyDescent="0.2">
-      <c r="A12" s="6" t="s">
+      <c r="A12" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6" t="s">
+      <c r="B12" s="4"/>
+      <c r="C12" s="4" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="19" x14ac:dyDescent="0.2">
-      <c r="A13" s="6" t="s">
+      <c r="A13" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6" t="s">
+      <c r="B13" s="4"/>
+      <c r="C13" s="4" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="19" x14ac:dyDescent="0.2">
-      <c r="A14" s="6" t="s">
+      <c r="A14" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="B14" s="6"/>
-      <c r="C14" s="6" t="s">
+      <c r="B14" s="4"/>
+      <c r="C14" s="4" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="19" x14ac:dyDescent="0.2">
-      <c r="A15" s="6" t="s">
+      <c r="A15" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6" t="s">
+      <c r="B15" s="4"/>
+      <c r="C15" s="4" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="19" x14ac:dyDescent="0.2">
-      <c r="A16" s="6" t="s">
+      <c r="A16" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="B16" s="6"/>
-      <c r="C16" s="6" t="s">
+      <c r="B16" s="4"/>
+      <c r="C16" s="4" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="19" x14ac:dyDescent="0.2">
-      <c r="A17" s="6" t="s">
+      <c r="A17" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="B17" s="6"/>
-      <c r="C17" s="6" t="s">
+      <c r="B17" s="4"/>
+      <c r="C17" s="4" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="19" x14ac:dyDescent="0.2">
-      <c r="A18" s="6" t="s">
+      <c r="A18" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="B18" s="6"/>
-      <c r="C18" s="6" t="s">
+      <c r="B18" s="4"/>
+      <c r="C18" s="4" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="19" x14ac:dyDescent="0.2">
-      <c r="A19" s="6" t="s">
+      <c r="A19" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="B19" s="6"/>
-      <c r="C19" s="6" t="s">
+      <c r="B19" s="4"/>
+      <c r="C19" s="4" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="19" x14ac:dyDescent="0.2">
-      <c r="A20" s="6" t="s">
+      <c r="A20" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="B20" s="6"/>
-      <c r="C20" s="6" t="s">
+      <c r="B20" s="4"/>
+      <c r="C20" s="4" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="19" x14ac:dyDescent="0.2">
-      <c r="A21" s="6" t="s">
+      <c r="A21" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="B21" s="6"/>
-      <c r="C21" s="6" t="s">
+      <c r="B21" s="4"/>
+      <c r="C21" s="4" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="19" x14ac:dyDescent="0.2">
-      <c r="A22" s="6" t="s">
+      <c r="A22" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="B22" s="6"/>
-      <c r="C22" s="6" t="s">
+      <c r="B22" s="4"/>
+      <c r="C22" s="4" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="19" x14ac:dyDescent="0.2">
-      <c r="A23" s="6" t="s">
+      <c r="A23" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="B23" s="6"/>
-      <c r="C23" s="6" t="s">
+      <c r="B23" s="4"/>
+      <c r="C23" s="4" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="19" x14ac:dyDescent="0.2">
-      <c r="A24" s="6" t="s">
+      <c r="A24" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="B24" s="6"/>
-      <c r="C24" s="6" t="s">
+      <c r="B24" s="4"/>
+      <c r="C24" s="4" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="19" x14ac:dyDescent="0.2">
-      <c r="A25" s="6" t="s">
+      <c r="A25" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="B25" s="6"/>
-      <c r="C25" s="6" t="s">
+      <c r="B25" s="4"/>
+      <c r="C25" s="4" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="19" x14ac:dyDescent="0.2">
-      <c r="A26" s="6" t="s">
+      <c r="A26" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="B26" s="6"/>
-      <c r="C26" s="6" t="s">
+      <c r="B26" s="4"/>
+      <c r="C26" s="4" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="19" x14ac:dyDescent="0.2">
-      <c r="A27" s="6" t="s">
+      <c r="A27" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="B27" s="6"/>
-      <c r="C27" s="6" t="s">
+      <c r="B27" s="4"/>
+      <c r="C27" s="4" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="19" x14ac:dyDescent="0.2">
-      <c r="A28" s="6" t="s">
+      <c r="A28" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="B28" s="6"/>
-      <c r="C28" s="6" t="s">
+      <c r="B28" s="4"/>
+      <c r="C28" s="4" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="19" x14ac:dyDescent="0.2">
-      <c r="A29" s="6" t="s">
+      <c r="A29" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="B29" s="6"/>
-      <c r="C29" s="6" t="s">
+      <c r="B29" s="4"/>
+      <c r="C29" s="4" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="19" x14ac:dyDescent="0.2">
-      <c r="A30" s="6" t="s">
+      <c r="A30" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="B30" s="6"/>
-      <c r="C30" s="6" t="s">
+      <c r="B30" s="4"/>
+      <c r="C30" s="4" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="19" x14ac:dyDescent="0.2">
-      <c r="A31" s="6" t="s">
+      <c r="A31" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="B31" s="6"/>
-      <c r="C31" s="6" t="s">
+      <c r="B31" s="4"/>
+      <c r="C31" s="4" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="19" x14ac:dyDescent="0.2">
-      <c r="A32" s="6" t="s">
+      <c r="A32" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="B32" s="6"/>
-      <c r="C32" s="6" t="s">
+      <c r="B32" s="4"/>
+      <c r="C32" s="4" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="19" x14ac:dyDescent="0.2">
-      <c r="A33" s="6" t="s">
+      <c r="A33" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="B33" s="6"/>
-      <c r="C33" s="6" t="s">
+      <c r="B33" s="4"/>
+      <c r="C33" s="4" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="19" x14ac:dyDescent="0.2">
-      <c r="A34" s="6" t="s">
+      <c r="A34" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="B34" s="6"/>
-      <c r="C34" s="6" t="s">
+      <c r="B34" s="4"/>
+      <c r="C34" s="4" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="19" x14ac:dyDescent="0.2">
-      <c r="A35" s="6" t="s">
+      <c r="A35" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="B35" s="6"/>
-      <c r="C35" s="6" t="s">
+      <c r="B35" s="4"/>
+      <c r="C35" s="4" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="19" x14ac:dyDescent="0.2">
-      <c r="A36" s="6" t="s">
+      <c r="A36" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="B36" s="6"/>
-      <c r="C36" s="6" t="s">
+      <c r="B36" s="4"/>
+      <c r="C36" s="4" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="19" x14ac:dyDescent="0.2">
-      <c r="A37" s="6" t="s">
+      <c r="A37" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="B37" s="6"/>
-      <c r="C37" s="6" t="s">
+      <c r="B37" s="4"/>
+      <c r="C37" s="4" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="19" x14ac:dyDescent="0.2">
-      <c r="A38" s="6" t="s">
+      <c r="A38" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="B38" s="6"/>
-      <c r="C38" s="6" t="s">
+      <c r="B38" s="4"/>
+      <c r="C38" s="4" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="19" x14ac:dyDescent="0.2">
-      <c r="A39" s="6" t="s">
+      <c r="A39" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="B39" s="6"/>
-      <c r="C39" s="6" t="s">
+      <c r="B39" s="4"/>
+      <c r="C39" s="4" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="19" x14ac:dyDescent="0.2">
-      <c r="A40" s="6" t="s">
+      <c r="A40" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="B40" s="6"/>
-      <c r="C40" s="6" t="s">
+      <c r="B40" s="4"/>
+      <c r="C40" s="4" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="19" x14ac:dyDescent="0.2">
-      <c r="A41" s="6" t="s">
+      <c r="A41" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="B41" s="6"/>
-      <c r="C41" s="6" t="s">
+      <c r="B41" s="4"/>
+      <c r="C41" s="4" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="19" x14ac:dyDescent="0.2">
-      <c r="A42" s="6" t="s">
+      <c r="A42" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="B42" s="6"/>
-      <c r="C42" s="6" t="s">
+      <c r="B42" s="4"/>
+      <c r="C42" s="4" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="19" x14ac:dyDescent="0.2">
-      <c r="A43" s="6" t="s">
+      <c r="A43" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="B43" s="6"/>
-      <c r="C43" s="6" t="s">
+      <c r="B43" s="4"/>
+      <c r="C43" s="4" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="19" x14ac:dyDescent="0.2">
-      <c r="A44" s="6" t="s">
+      <c r="A44" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="B44" s="6"/>
-      <c r="C44" s="6" t="s">
+      <c r="B44" s="4"/>
+      <c r="C44" s="4" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="19" x14ac:dyDescent="0.2">
-      <c r="A45" s="6" t="s">
+      <c r="A45" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="B45" s="6"/>
-      <c r="C45" s="6" t="s">
+      <c r="B45" s="4"/>
+      <c r="C45" s="4" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="19" x14ac:dyDescent="0.2">
-      <c r="A46" s="6" t="s">
+      <c r="A46" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="B46" s="6"/>
-      <c r="C46" s="6" t="s">
+      <c r="B46" s="4"/>
+      <c r="C46" s="4" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="19" x14ac:dyDescent="0.2">
-      <c r="A47" s="6" t="s">
+      <c r="A47" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="B47" s="6"/>
-      <c r="C47" s="6" t="s">
+      <c r="B47" s="4"/>
+      <c r="C47" s="4" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="19" x14ac:dyDescent="0.2">
-      <c r="A48" s="6" t="s">
+      <c r="A48" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="B48" s="6"/>
-      <c r="C48" s="6" t="s">
+      <c r="B48" s="4"/>
+      <c r="C48" s="4" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="19" x14ac:dyDescent="0.2">
-      <c r="A49" s="6" t="s">
+      <c r="A49" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="B49" s="6"/>
-      <c r="C49" s="6" t="s">
+      <c r="B49" s="4"/>
+      <c r="C49" s="4" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="19" x14ac:dyDescent="0.2">
-      <c r="A50" s="6" t="s">
+      <c r="A50" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="B50" s="6"/>
-      <c r="C50" s="6" t="s">
+      <c r="B50" s="4"/>
+      <c r="C50" s="4" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="19" x14ac:dyDescent="0.2">
-      <c r="A51" s="6" t="s">
+      <c r="A51" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="B51" s="6"/>
-      <c r="C51" s="6" t="s">
+      <c r="B51" s="4"/>
+      <c r="C51" s="4" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="19" x14ac:dyDescent="0.2">
-      <c r="A52" s="6" t="s">
+      <c r="A52" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="B52" s="6"/>
-      <c r="C52" s="6" t="s">
+      <c r="B52" s="4"/>
+      <c r="C52" s="4" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="19" x14ac:dyDescent="0.2">
-      <c r="A53" s="6" t="s">
+      <c r="A53" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="B53" s="6"/>
-      <c r="C53" s="6" t="s">
+      <c r="B53" s="4"/>
+      <c r="C53" s="4" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="19" x14ac:dyDescent="0.2">
-      <c r="A54" s="6" t="s">
+      <c r="A54" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="B54" s="6"/>
-      <c r="C54" s="6" t="s">
+      <c r="B54" s="4"/>
+      <c r="C54" s="4" t="s">
         <v>99</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>